--- a/data/trans_orig/P17E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D72FA2-70A5-4352-BCBB-2A9DB2379BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{841A8160-A607-4227-9BDE-A88561F03E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{823D7FD7-C8D8-4EB3-A2FF-6355CC5F4F74}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80989F53-F280-4102-9436-6F046623CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,859 +77,865 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,58%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>Médico general</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>Médico general</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>83,91%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>78,61%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A92DE7-466C-4FAB-B5F8-F762474383D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA31BCE5-F6A5-4327-83E8-E96AC9718BC1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1829,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1874,7 +1880,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>71769</v>
+        <v>71768</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197E333-CF1F-4BDF-9ACE-45D28102EAB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B632E9F5-0A56-451E-BD26-DA12DEBAE3CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2434,7 +2440,7 @@
         <v>365</v>
       </c>
       <c r="I8" s="7">
-        <v>394687</v>
+        <v>394688</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2485,7 +2491,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>493361</v>
+        <v>493362</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2681,13 +2687,13 @@
         <v>163088</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -2702,7 +2708,7 @@
         <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -2711,13 +2717,13 @@
         <v>376396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2738,13 @@
         <v>616030</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>871</v>
@@ -2747,13 +2753,13 @@
         <v>939099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>1435</v>
@@ -2762,13 +2768,13 @@
         <v>1555129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08E163-F4C7-4876-A559-76FA5DEFC675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B8122-8BD4-4557-9872-351BD872A585}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2973,13 @@
         <v>39567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -2982,13 +2988,13 @@
         <v>67687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -2997,13 +3003,13 @@
         <v>107255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3024,13 @@
         <v>220597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -3033,7 +3039,7 @@
         <v>353545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>171</v>
@@ -3158,7 +3164,7 @@
         <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>384190</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3188,13 +3194,13 @@
         <v>483629</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -3203,13 +3209,13 @@
         <v>867819</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3283,13 @@
         <v>34061</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3292,13 +3298,13 @@
         <v>38737</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -3307,13 +3313,13 @@
         <v>72798</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3334,13 @@
         <v>85644</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3343,13 +3349,13 @@
         <v>99886</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>171</v>
@@ -3358,13 +3364,13 @@
         <v>185530</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3438,13 @@
         <v>155952</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -3486,10 +3492,10 @@
         <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -3498,28 +3504,28 @@
         <v>937060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1528</v>
       </c>
       <c r="N14" s="7">
-        <v>1627490</v>
+        <v>1627491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3567,7 @@
         <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>2002418</v>
+        <v>2002419</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB42307-817E-4FE9-ACAA-1E589BA4D20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EEC5D2-1CFD-4F06-B349-878D0A3B4646}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3724,13 @@
         <v>28643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -3733,13 +3739,13 @@
         <v>36103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -3748,13 +3754,13 @@
         <v>64747</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3775,13 @@
         <v>115464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -3784,13 +3790,13 @@
         <v>230218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -3799,7 +3805,7 @@
         <v>345681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>243</v>
@@ -4049,7 +4055,7 @@
         <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -4058,13 +4064,13 @@
         <v>91657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4085,13 @@
         <v>95368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -4094,13 +4100,13 @@
         <v>114135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4109,13 +4115,13 @@
         <v>209504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4189,13 @@
         <v>160822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>301</v>
@@ -4198,13 +4204,13 @@
         <v>209277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -4213,13 +4219,13 @@
         <v>370100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4240,13 @@
         <v>505191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>1043</v>
@@ -4249,13 +4255,13 @@
         <v>709015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1579</v>
@@ -4264,13 +4270,13 @@
         <v>1214206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{841A8160-A607-4227-9BDE-A88561F03E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96999AE-BFA0-4E33-AD84-E98C75464D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80989F53-F280-4102-9436-6F046623CBC6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{620F6962-5F7B-4195-A2AB-042D91E1397B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,699 +77,723 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,28%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>Médico general</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>Médico general</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
     <t>81,11%</t>
   </si>
   <si>
@@ -833,9 +857,6 @@
     <t>30,02%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
     <t>39,48%</t>
   </si>
   <si>
@@ -861,9 +882,6 @@
   </si>
   <si>
     <t>60,52%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
   </si>
   <si>
     <t>69,22%</t>
@@ -1347,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA31BCE5-F6A5-4327-83E8-E96AC9718BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88F40F-EAB0-4A22-9833-D97F5F8AD576}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B632E9F5-0A56-451E-BD26-DA12DEBAE3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51760BCA-04D5-41B7-858A-4CF7067687C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2687,13 +2705,13 @@
         <v>163088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -2702,13 +2720,13 @@
         <v>213308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -2717,13 +2735,13 @@
         <v>376396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2756,13 @@
         <v>616030</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>871</v>
@@ -2753,13 +2771,13 @@
         <v>939099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1435</v>
@@ -2768,13 +2786,13 @@
         <v>1555129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B8122-8BD4-4557-9872-351BD872A585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29163E-6EFF-4696-B27F-5C878A4DFD79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2991,13 @@
         <v>39567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -2988,13 +3006,13 @@
         <v>67687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -3003,13 +3021,13 @@
         <v>107255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3042,13 @@
         <v>220597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -3039,13 +3057,13 @@
         <v>353545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>540</v>
@@ -3054,13 +3072,13 @@
         <v>574141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3146,13 @@
         <v>82324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3143,13 +3161,13 @@
         <v>112552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3158,13 +3176,13 @@
         <v>194876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3197,13 @@
         <v>384190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3194,13 +3212,13 @@
         <v>483629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -3209,13 +3227,13 @@
         <v>867819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3301,13 @@
         <v>34061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3298,13 +3316,13 @@
         <v>38737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -3313,13 +3331,13 @@
         <v>72798</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>85644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3349,13 +3367,13 @@
         <v>99886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>171</v>
@@ -3364,13 +3382,13 @@
         <v>185530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3456,13 @@
         <v>155952</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -3453,13 +3471,13 @@
         <v>218976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -3468,13 +3486,13 @@
         <v>374928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>690431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -3504,13 +3522,13 @@
         <v>937060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1528</v>
@@ -3519,13 +3537,13 @@
         <v>1627491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EEC5D2-1CFD-4F06-B349-878D0A3B4646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5530DC-07EF-4128-98B4-704982B67678}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3742,13 @@
         <v>28643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -3739,13 +3757,13 @@
         <v>36103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -3754,13 +3772,13 @@
         <v>64747</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3793,13 @@
         <v>115464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -3790,13 +3808,13 @@
         <v>230218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -3805,13 +3823,13 @@
         <v>345681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3897,13 @@
         <v>91271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -3894,13 +3912,13 @@
         <v>122424</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -3909,13 +3927,13 @@
         <v>213695</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>294359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
@@ -3945,13 +3963,13 @@
         <v>364663</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>788</v>
@@ -3960,13 +3978,13 @@
         <v>659022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4052,13 @@
         <v>40908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -4049,13 +4067,13 @@
         <v>50750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -4064,13 +4082,13 @@
         <v>91657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4103,13 @@
         <v>95368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -4100,13 +4118,13 @@
         <v>114135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4115,13 +4133,13 @@
         <v>209504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4207,13 @@
         <v>160822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>301</v>
@@ -4204,13 +4222,13 @@
         <v>209277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -4219,13 +4237,13 @@
         <v>370100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4258,13 @@
         <v>505191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>1043</v>
@@ -4255,13 +4273,13 @@
         <v>709015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1579</v>
@@ -4270,13 +4288,13 @@
         <v>1214206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96999AE-BFA0-4E33-AD84-E98C75464D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B7FD7A-6531-4BEC-9D8C-75037ABBC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{620F6962-5F7B-4195-A2AB-042D91E1397B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23C79A17-C28B-4A0D-ACBE-1F157D9066AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>84,98%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,03%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>74,08%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>37,57%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>33,22%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>62,43%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,205 @@
     <t>22,11%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>18,16%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>81,84%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>83,56%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
@@ -530,430 +518,418 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,45%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF88F40F-EAB0-4A22-9833-D97F5F8AD576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE810C6-CBE6-4CCE-880F-2AAA21CFC36B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1847,7 +1823,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1898,7 +1874,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>71768</v>
+        <v>71769</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51760BCA-04D5-41B7-858A-4CF7067687C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252981F6-BB45-451D-AAB4-F3567A7670AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2458,7 +2434,7 @@
         <v>365</v>
       </c>
       <c r="I8" s="7">
-        <v>394688</v>
+        <v>394687</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2509,7 +2485,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>493362</v>
+        <v>493361</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2711,7 +2687,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -2720,13 +2696,13 @@
         <v>213308</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -2735,13 +2711,13 @@
         <v>376396</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2732,13 @@
         <v>616030</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>871</v>
@@ -2771,13 +2747,13 @@
         <v>939099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>1435</v>
@@ -2786,13 +2762,13 @@
         <v>1555129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29163E-6EFF-4696-B27F-5C878A4DFD79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA945A-B529-4DA7-B649-BBAD2177098C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2967,13 @@
         <v>39567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -3006,13 +2982,13 @@
         <v>67687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -3021,13 +2997,13 @@
         <v>107255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3018,13 @@
         <v>220597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -3057,13 +3033,13 @@
         <v>353545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>540</v>
@@ -3072,13 +3048,13 @@
         <v>574141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3122,13 @@
         <v>82324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3161,13 +3137,13 @@
         <v>112552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3176,13 +3152,13 @@
         <v>194876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3173,13 @@
         <v>384190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3212,13 +3188,13 @@
         <v>483629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -3227,13 +3203,13 @@
         <v>867819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3277,13 @@
         <v>34061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3316,13 +3292,13 @@
         <v>38737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -3331,13 +3307,13 @@
         <v>72798</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3328,13 @@
         <v>85644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3367,13 +3343,13 @@
         <v>99886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>171</v>
@@ -3382,13 +3358,13 @@
         <v>185530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3432,13 @@
         <v>155952</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -3471,13 +3447,13 @@
         <v>218976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -3486,13 +3462,13 @@
         <v>374928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3483,13 @@
         <v>690431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -3522,28 +3498,28 @@
         <v>937060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1528</v>
       </c>
       <c r="N14" s="7">
-        <v>1627491</v>
+        <v>1627490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3561,7 @@
         <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>2002419</v>
+        <v>2002418</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5530DC-07EF-4128-98B4-704982B67678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D49706-0EAC-4D4C-99B9-3381FFB79414}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3718,13 @@
         <v>28643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -3757,13 +3733,13 @@
         <v>36103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -3772,13 +3748,13 @@
         <v>64747</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3769,13 @@
         <v>115464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -3808,13 +3784,13 @@
         <v>230218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -3823,13 +3799,13 @@
         <v>345681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3873,13 @@
         <v>91271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -3912,13 +3888,13 @@
         <v>122424</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -3927,13 +3903,13 @@
         <v>213695</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3924,13 @@
         <v>294359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
@@ -3963,13 +3939,13 @@
         <v>364663</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>788</v>
@@ -3978,13 +3954,13 @@
         <v>659022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4028,13 @@
         <v>40908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -4067,13 +4043,13 @@
         <v>50750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -4082,13 +4058,13 @@
         <v>91657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4079,13 @@
         <v>95368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -4118,13 +4094,13 @@
         <v>114135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4133,13 +4109,13 @@
         <v>209504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4183,13 @@
         <v>160822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>301</v>
@@ -4222,13 +4198,13 @@
         <v>209277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -4237,13 +4213,13 @@
         <v>370100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4234,13 @@
         <v>505191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>1043</v>
@@ -4273,13 +4249,13 @@
         <v>709015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>1579</v>
@@ -4288,13 +4264,13 @@
         <v>1214206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B7FD7A-6531-4BEC-9D8C-75037ABBC3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C041C4A7-AEB7-44B3-AC88-05FE6544338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23C79A17-C28B-4A0D-ACBE-1F157D9066AA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ABB63B47-6AF6-44DF-8085-6951949F4EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -722,214 +722,196 @@
     <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE810C6-CBE6-4CCE-880F-2AAA21CFC36B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887719B5-C6AE-41D1-962E-8A4DECDB61FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252981F6-BB45-451D-AAB4-F3567A7670AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23E165F-2155-4CC1-BAC3-E2C9A657FEB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA945A-B529-4DA7-B649-BBAD2177098C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A62E820-03A4-433F-9148-5000D990FD5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,7 +3492,7 @@
         <v>1528</v>
       </c>
       <c r="N14" s="7">
-        <v>1627490</v>
+        <v>1627491</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>223</v>
@@ -3561,7 +3543,7 @@
         <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>2002418</v>
+        <v>2002419</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D49706-0EAC-4D4C-99B9-3381FFB79414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66532A1F-B1F2-483D-82FA-A642EB5F5D9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3697,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>28643</v>
+        <v>27090</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3730,7 +3712,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>36103</v>
+        <v>32754</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3745,7 +3727,7 @@
         <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>64747</v>
+        <v>59844</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3766,7 +3748,7 @@
         <v>148</v>
       </c>
       <c r="D5" s="7">
-        <v>115464</v>
+        <v>109021</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3781,7 +3763,7 @@
         <v>379</v>
       </c>
       <c r="I5" s="7">
-        <v>230218</v>
+        <v>204848</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3796,7 +3778,7 @@
         <v>527</v>
       </c>
       <c r="N5" s="7">
-        <v>345681</v>
+        <v>313869</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3817,7 +3799,7 @@
         <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>144107</v>
+        <v>136111</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3814,7 @@
         <v>441</v>
       </c>
       <c r="I6" s="7">
-        <v>266321</v>
+        <v>237602</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3829,7 @@
         <v>627</v>
       </c>
       <c r="N6" s="7">
-        <v>410428</v>
+        <v>373713</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,46 +3852,46 @@
         <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>91271</v>
+        <v>87239</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
       </c>
       <c r="I7" s="7">
-        <v>122424</v>
+        <v>112673</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
       </c>
       <c r="N7" s="7">
-        <v>213695</v>
+        <v>199912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3903,46 @@
         <v>288</v>
       </c>
       <c r="D8" s="7">
-        <v>294359</v>
+        <v>282419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="7">
-        <v>364663</v>
+        <v>388943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>788</v>
       </c>
       <c r="N8" s="7">
-        <v>659022</v>
+        <v>671362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3954,7 @@
         <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>385630</v>
+        <v>369658</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3969,7 @@
         <v>665</v>
       </c>
       <c r="I9" s="7">
-        <v>487087</v>
+        <v>501616</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +3984,7 @@
         <v>1044</v>
       </c>
       <c r="N9" s="7">
-        <v>872717</v>
+        <v>871274</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4007,46 @@
         <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>40908</v>
+        <v>39472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>50750</v>
+        <v>47481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>91657</v>
+        <v>86952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,46 +4058,46 @@
         <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>95368</v>
+        <v>92884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>114135</v>
+        <v>105975</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
       </c>
       <c r="N11" s="7">
-        <v>209504</v>
+        <v>198860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4109,7 @@
         <v>144</v>
       </c>
       <c r="D12" s="7">
-        <v>136276</v>
+        <v>132356</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4124,7 @@
         <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>164885</v>
+        <v>153456</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4139,7 @@
         <v>382</v>
       </c>
       <c r="N12" s="7">
-        <v>301161</v>
+        <v>285812</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4162,46 @@
         <v>173</v>
       </c>
       <c r="D13" s="7">
-        <v>160822</v>
+        <v>153800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>301</v>
       </c>
       <c r="I13" s="7">
-        <v>209277</v>
+        <v>192908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
       </c>
       <c r="N13" s="7">
-        <v>370100</v>
+        <v>346709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4213,46 @@
         <v>536</v>
       </c>
       <c r="D14" s="7">
-        <v>505191</v>
+        <v>484325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>1043</v>
       </c>
       <c r="I14" s="7">
-        <v>709015</v>
+        <v>699766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1579</v>
       </c>
       <c r="N14" s="7">
-        <v>1214206</v>
+        <v>1184091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4264,7 @@
         <v>709</v>
       </c>
       <c r="D15" s="7">
-        <v>666013</v>
+        <v>638125</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4279,7 @@
         <v>1344</v>
       </c>
       <c r="I15" s="7">
-        <v>918292</v>
+        <v>892674</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4294,7 @@
         <v>2053</v>
       </c>
       <c r="N15" s="7">
-        <v>1584306</v>
+        <v>1530800</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
